--- a/data/trans_camb/P43E_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43E_R-Habitat-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4390159414027084</v>
+        <v>-0.08856302559420237</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.376080422183083</v>
+        <v>-1.337511038370156</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.38456105507507</v>
+        <v>9.784566293831853</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.844107907337365</v>
+        <v>8.191373860680613</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.003100394205672653</v>
+        <v>-0.0004872320014448596</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01568658133179122</v>
+        <v>-0.01492126251881965</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1276472139657738</v>
+        <v>0.1217958910820666</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1107367978873427</v>
+        <v>0.1024803794156128</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.936118243878887</v>
+        <v>5.156803409118678</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7951607650272722</v>
+        <v>-1.554354499359151</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.29604231844748</v>
+        <v>14.05264300376738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.080853990263769</v>
+        <v>8.241170077488736</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06572497815846447</v>
+        <v>0.06705273708981545</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01021457337034236</v>
+        <v>-0.01988399762054449</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1997789575157602</v>
+        <v>0.1932746000988464</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1249081931688278</v>
+        <v>0.1133234668223326</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.791119689806269</v>
+        <v>2.053806077741586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.81657989621296</v>
+        <v>-12.0428043404194</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.38504670647638</v>
+        <v>12.80808011102484</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.0714033060993946</v>
+        <v>0.09552595896975193</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02393787841691258</v>
+        <v>0.02651034517492318</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1537971248096075</v>
+        <v>-0.1563102218064363</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1743041751211515</v>
+        <v>0.1819013844715185</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.002912087627531566</v>
+        <v>0.0006357440837131956</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.06546606142931628</v>
+        <v>0.04059291193054531</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.931945276062027</v>
+        <v>-9.591416004635279</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.139973470118182</v>
+        <v>9.446642905123019</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.4313767310293998</v>
+        <v>0.3076558420033754</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.000833598655674871</v>
+        <v>0.0004321540426508671</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1263184481896213</v>
+        <v>-0.1225966799921107</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.122692908201915</v>
+        <v>0.1286078402781872</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.005654839717634788</v>
+        <v>0.004248075944601742</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>6.613810958360745</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.548087919728613</v>
+        <v>-1.548087919728591</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.101570053189393</v>
+        <v>4.034687294125358</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.327613756250329</v>
+        <v>-4.182522167159603</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.95705072094488</v>
+        <v>9.042757411335495</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8500192079459741</v>
+        <v>1.133625677323121</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.08590056135013381</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.02010665592973174</v>
+        <v>-0.02010665592973145</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05239696674197972</v>
+        <v>0.05141813623038291</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0550324610596945</v>
+        <v>-0.05367661554723646</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1190477748176437</v>
+        <v>0.1191285296112951</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01134081540903076</v>
+        <v>0.01480487178270908</v>
       </c>
     </row>
     <row r="34">
